--- a/CorrectnessProof/script_log.xlsx
+++ b/CorrectnessProof/script_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,37 +424,37 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>C_Examples/mul_add.c</t>
+          <t>C-master/audio/alaw.c</t>
         </is>
       </c>
       <c r="B1" t="n">
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>24.31920909881592</v>
+        <v>14.75542902946472</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Task completed successfully</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C_Examples/node_calculate.c</t>
+          <t>C-master/cipher/affine.c</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>21.75040102005005</v>
+        <v>14.78836703300476</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -470,14 +470,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C_Examples/prompt.c</t>
+          <t>C-master/cipher/rot13.c</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4.822741031646729</v>
+        <v>7.55829930305481</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -493,14 +493,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C_Examples/traversal.c</t>
+          <t>C-master/client_server/tcp_half_duplex_server.c</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.687738180160522</v>
+        <v>9.536353826522827</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -516,14 +516,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C_Examples/withdraw.c</t>
+          <t>C-master/client_server/remote_command_exec_udp_server.c</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.111767053604126</v>
+        <v>8.763803243637085</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -539,120 +539,110 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C-master/cipher/CMakeLists.txt</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>C-master/client_server/udp_server.c</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.836641788482666</v>
+        <v>14.29333305358887</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Failure: openpyxl does not support .txt file format, please check you can open it with Excel first. Supported formats are: .xlsx,.xlsm,.xltx,.xltm</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Task completed successfully</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C-master/cipher/affine.c</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>C-master/client_server/tcp_full_duplex_server.c</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>15.83387279510498</v>
+        <v>15.95416283607483</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Failure: openpyxl does not support .c file format, please check you can open it with Excel first. Supported formats are: .xlsx,.xlsm,.xltx,.xltm</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Task completed successfully</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C-master/cipher/rot13.c</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>C-master/client_server/server.c</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>8.64500093460083</v>
+        <v>14.60973906517029</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Failure: openpyxl does not support .c file format, please check you can open it with Excel first. Supported formats are: .xlsx,.xlsm,.xltx,.xltm</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Task completed successfully</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C-master/dynamic_programming/CMakeLists.txt</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>C-master/client_server/client.c</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.519105911254883</v>
+        <v>13.42084193229675</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Failure: openpyxl does not support .txt file format, please check you can open it with Excel first. Supported formats are: .xlsx,.xlsm,.xltx,.xltm</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Task completed successfully</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C-master/dynamic_programming/lcs.c</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>C-master/client_server/tcp_full_duplex_client.c</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>41.29147410392761</v>
+        <v>194.6906681060791</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Failure: openpyxl does not support .c file format, please check you can open it with Excel first. Supported formats are: .xlsx,.xlsm,.xltx,.xltm</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -664,89 +654,83 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C-master/dynamic_programming/matrix_chain_order.c</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>C-master/client_server/udp_client.c</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>12.55735898017883</v>
+        <v>9.663095951080322</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Failure: openpyxl does not support .c file format, please check you can open it with Excel first. Supported formats are: .xlsx,.xlsm,.xltx,.xltm</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Task completed successfully</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C-master/audio/CMakeLists.txt</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>C-master/client_server/remote_command_exec_udp_client.c</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>5.325157165527344</v>
+        <v>10.25412607192993</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Failure: 'str' object has no attribute 'value'</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Task completed successfully</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C-master/audio/alaw.c</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>C-master/client_server/tcp_half_duplex_client.c</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>14.15712809562683</v>
+        <v>11.42330694198608</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Failure: 'str' object has no attribute 'value'</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Task completed successfully</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C-master/client_server/CMakeLists.txt</t>
+          <t>C-master/conversions/binary_to_decimal.c</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.92357611656189</v>
+        <v>7.100168943405151</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -762,66 +746,64 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C-master/client_server/bool.h</t>
+          <t>C-master/conversions/infix_to_postfix2.c</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.919833183288574</v>
+        <v>13.52163696289062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Task completed successfully</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C-master/client_server/client.c</t>
+          <t>C-master/conversions/int_to_string.c</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>11.56664514541626</v>
+        <v>18.72377514839172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Task failed</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C-master/client_server/fork.h</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>C-master/conversions/binary_to_hexadecimal.c</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>21.19490504264832</v>
+        <v>10.83102107048035</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Failure: No function containing 'proof_harness' in its name found.</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -833,14 +815,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C-master/client_server/remote_command_exec_udp_client.c</t>
+          <t>C-master/conversions/decimal_to_octal.c</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>11.07700514793396</v>
+        <v>5.021515607833862</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -856,37 +838,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C-master/client_server/remote_command_exec_udp_server.c</t>
+          <t>C-master/conversions/binary_to_octal.c</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>14.69514513015747</v>
+        <v>8.822340250015259</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Task completed successfully</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C-master/client_server/server.c</t>
+          <t>C-master/conversions/infix_to_postfix.c</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>11.2907440662384</v>
+        <v>21.07982683181763</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -902,14 +884,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C-master/client_server/tcp_full_duplex_client.c</t>
+          <t>C-master/conversions/decimal_to_any_base.c</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>12.42793393135071</v>
+        <v>17.77124905586243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -925,18 +907,18 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C-master/client_server/tcp_full_duplex_server.c</t>
+          <t>C-master/conversions/roman_numerals_to_decimal.c</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>186.8991539478302</v>
+        <v>17.5755877494812</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -948,14 +930,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>C-master/client_server/tcp_half_duplex_client.c</t>
+          <t>C-master/conversions/hexadecimal_to_octal2.c</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>13.62404179573059</v>
+        <v>9.3961181640625</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -971,14 +953,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C-master/client_server/tcp_half_duplex_server.c</t>
+          <t>C-master/conversions/to_decimal.c</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>8.746628999710083</v>
+        <v>5.586796045303345</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -994,14 +976,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C-master/client_server/udp_client.c</t>
+          <t>C-master/conversions/c_atoi_str_to_integer.c</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>8.601041078567505</v>
+        <v>12.72050786018372</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1017,14 +999,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>C-master/client_server/udp_server.c</t>
+          <t>C-master/conversions/octal_to_decimal.c</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>10.05717182159424</v>
+        <v>12.34346604347229</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1040,14 +1022,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C-master/conversions/CMakeLists.txt</t>
+          <t>C-master/conversions/hexadecimal_to_octal.c</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>5.575724124908447</v>
+        <v>13.62736487388611</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1063,14 +1045,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>C-master/conversions/binary_to_decimal.c</t>
+          <t>C-master/conversions/decimal_to_hexa.c</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>7.655274868011475</v>
+        <v>6.366291046142578</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1086,14 +1068,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C-master/conversions/binary_to_hexadecimal.c</t>
+          <t>C-master/conversions/decimal_to_binary.c</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.514354944229126</v>
+        <v>7.533214807510376</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1109,14 +1091,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C-master/conversions/binary_to_octal.c</t>
+          <t>C-master/conversions/decimal_to_binary_recursion.c</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>6.492219209671021</v>
+        <v>7.780529022216797</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1132,14 +1114,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>C-master/conversions/c_atoi_str_to_integer.c</t>
+          <t>C-master/conversions/octal_to_binary.c</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>9.183257102966309</v>
+        <v>5.872606754302979</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1155,14 +1137,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>C-master/conversions/celsius_to_fahrenheit.c</t>
+          <t>C-master/conversions/octal_to_hexadecimal.c</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>26.45551085472107</v>
+        <v>25.44811296463013</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1178,37 +1160,37 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>C-master/conversions/decimal_to_any_base.c</t>
+          <t>C-master/conversions/celsius_to_fahrenheit.c</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>16.89894700050354</v>
+        <v>26.63769602775574</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Task failed</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C-master/conversions/decimal_to_binary.c</t>
+          <t>C-master/conversions/decimal_to_octal_recursion.c</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>7.703171014785767</v>
+        <v>6.021715879440308</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1224,37 +1206,37 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C-master/conversions/decimal_to_binary_recursion.c</t>
+          <t>C-master/data_structures/stack.c</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>6.005915880203247</v>
+        <v>993.176687002182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Task failed</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C-master/conversions/decimal_to_hexa.c</t>
+          <t>C-master/data_structures/vector.c</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>4.681202173233032</v>
+        <v>28.97751712799072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1270,175 +1252,177 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>C-master/conversions/decimal_to_octal.c</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
+          <t>C-master/data_structures/array/carray_tests.c</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>4.056172132492065</v>
+        <v>922.0170369148254</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>Failure: 504 Deadline Exceeded</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Task failed</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C-master/conversions/decimal_to_octal_recursion.c</t>
+          <t>C-master/data_structures/array/carray.c</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>6.354875087738037</v>
+        <v>118.7399108409882</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Task failed</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C-master/conversions/hexadecimal_to_octal.c</t>
+          <t>C-master/data_structures/hash_set/hash_set.c</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>12.82877492904663</v>
+        <v>98.32821393013</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Task failed</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C-master/conversions/hexadecimal_to_octal2.c</t>
+          <t>C-master/data_structures/hash_set/main.c</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>8.497345685958862</v>
+        <v>32.99306416511536</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Task failed</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C-master/conversions/infix_to_postfix.c</t>
+          <t>C-master/data_structures/linked_list/circular_linked_list.c</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>14.38575196266174</v>
+        <v>21.10815000534058</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Task failed</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C-master/conversions/infix_to_postfix2.c</t>
+          <t>C-master/data_structures/linked_list/ascending_priority_queue.c</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>40.48549318313599</v>
+        <v>15.23083186149597</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Task completed successfully</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C-master/conversions/int_to_string.c</t>
+          <t>C-master/data_structures/linked_list/queue_linked_list.c</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>13.7938871383667</v>
+        <v>12.33661580085754</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Task completed successfully</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C-master/conversions/octal_to_binary.c</t>
+          <t>C-master/data_structures/linked_list/doubly_linked_list.c</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.997663974761963</v>
+        <v>15.49179196357727</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1454,64 +1438,64 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C-master/conversions/octal_to_decimal.c</t>
+          <t>C-master/data_structures/linked_list/stack_using_linked_lists.c</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>27.98072600364685</v>
+        <v>7.438419342041016</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Task completed successfully</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C-master/conversions/octal_to_hexadecimal.c</t>
+          <t>C-master/data_structures/linked_list/merge_linked_lists.c</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>29.74861812591553</v>
+        <v>13.58616089820862</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Task completed successfully</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C-master/conversions/roman_numerals_to_decimal.c</t>
+          <t>C-master/data_structures/linked_list/circular_doubly_linked_list.c</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>20.13657093048096</v>
+        <v>95.71502995491028</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1523,14 +1507,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C-master/conversions/to_decimal.c</t>
+          <t>C-master/data_structures/linked_list/middle_element_in_list.c</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>5.281927347183228</v>
+        <v>12.50861787796021</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1540,6 +1524,8301 @@
       <c r="E48" t="inlineStr">
         <is>
           <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/linked_list/singly_link_list_deletion.c</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>22.79697608947754</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/dynamic_array/main.c</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16.00437998771667</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/dynamic_array/dynamic_array.c</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>101.747407913208</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/trie/trie.c</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>16.8936128616333</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/binary_trees/threaded_binary_trees.c</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>20.6848247051239</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/binary_trees/segment_tree.c</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>46.77251625061035</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/binary_trees/words_alphabetical.c</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>22.26703119277954</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/binary_trees/create_node.c</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.028023958206177</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/binary_trees/red_black_tree.c</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>69.73289799690247</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/binary_trees/avl_tree.c</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>60.43205094337463</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/binary_trees/binary_search_tree.c</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>84.46966409683228</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/binary_trees/recursive_traversals.c</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>7.988964080810547</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/heap/max_heap.c</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>952.9658811092377</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/heap/min_heap.c</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>3260.199676990509</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/dictionary/dict.c</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>670.791218996048</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/dictionary/test_program.c</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2384.227317810059</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/list/list.c</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>218.4825117588043</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/list/main.c</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3043.402227878571</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/queue/queue.c</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3280.189196109772</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/bfs_queue.c</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>776.23011302948</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/dfs_recursive.c</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2541.253179788589</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/dijkstra.c</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1117.25004196167</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/transitive_closure.c</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>8.06426215171814</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/bellman_ford.c</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1495.540827989578</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/queue.c</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2158.524750947952</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/euler.c</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>3661.660884857178</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/kruskal.c</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>4805.093788146973</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/floyd_warshall.c</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>500.8045930862427</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/hamiltonian.c</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2010.110622882843</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/dfs.c</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>3241.163254976273</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/graph.c</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>3283.150023937225</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/topological_sort.c</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>795.2613320350647</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/strongly_connected_components.c</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2525.220796823502</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/graphs/bfs.c</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1134.243597984314</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/stack/stack.c</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3659.997348070145</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/stack/main.c</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>21.7286479473114</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/stack/parenthesis.c</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3640.194052934647</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/stack/dynamic_stack.c</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>3657.81259894371</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/stack/stack_linked_list/stack.c</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2435.187290906906</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>C-master/data_structures/stack/stack_linked_list/main.c</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4884.108278036118</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>C-master/developer_tools/test_malloc_dbg.c</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3660.136851787567</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>C-master/developer_tools/test_min_printf.c</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>17.29353904724121</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>C-master/developer_tools/malloc_dbg.c</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>3642.451016902924</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>C-master/dynamic_programming/matrix_chain_order.c</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2348.190378904343</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>C-master/dynamic_programming/lcs.c</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>45.77519917488098</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>C-master/exercism/rna_transcription/rna_transcription.c</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>9.16893482208252</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>C-master/exercism/hello_world/hello_world.c</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>9.623759746551514</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>C-master/exercism/isogram/isogram.c</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6.468784093856812</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>C-master/exercism/word_count/word_count.c</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>11.21714305877686</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>C-master/exercism/acronym/acronym.c</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>7.827849864959717</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>C-master/games/naval_battle.c</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>185.2525682449341</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>C-master/games/tic_tac_toe.c</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>46.45021796226501</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>C-master/games/hangman.c</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>60.94315218925476</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>C-master/geometry/vectors_3d.c</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>33.41951012611389</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>C-master/geometry/quaternions.c</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>24.42578196525574</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>C-master/graphics/spirograph.c</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>38.67739796638489</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>C-master/greedy_approach/dijkstra.c</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>10.89512324333191</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>C-master/greedy_approach/prim.c</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>22.1494472026825</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>C-master/hash/hash_djb2.c</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6.842016935348511</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>C-master/hash/hash_xor8.c</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>18.54208874702454</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>C-master/hash/hash_adler32.c</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5.453845977783203</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>C-master/hash/hash_sdbm.c</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.535575866699219</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>C-master/hash/hash_crc32.c</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6.846024990081787</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>C-master/hash/hash_blake2b.c</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>59.7939829826355</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1838.c</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>8.921881198883057</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1769.c</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5.738443851470947</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/540.c</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6.394762992858887</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/404.c</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>20.75045204162598</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/27.c</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5.480159997940063</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/63.c</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>6.877370119094849</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/700.c</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>17.15074276924133</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/69.c</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>10.96065402030945</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/561.c</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4.35250186920166</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/2222.c</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2</v>
+      </c>
+      <c r="C122" t="n">
+        <v>24.2335798740387</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/997.c</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7.893892765045166</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/704.c</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>14.45984196662903</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/110.c</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5.463310718536377</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/231.c</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.588340282440186</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/461.c</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5.800375938415527</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/42.c</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.39291524887085</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/29.c</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>17.74315190315247</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1137.c</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5.154932975769043</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/16.c</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.249193906784058</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/125.c</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2</v>
+      </c>
+      <c r="C132" t="n">
+        <v>29.84843969345093</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/3.c</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2</v>
+      </c>
+      <c r="C133" t="n">
+        <v>23.82543897628784</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/901.c</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.754040002822876</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1184.c</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4.754255056381226</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1752.c</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.602440118789673</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/9.c</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3.909449100494385</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/2095.c</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5.338238000869751</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1008.c</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>4.611749172210693</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Failure: Invalid operation: The `response.text` quick accessor requires the response to contain a valid `Part`, but none were returned. Please check the `candidate.safety_ratings` to determine if the response was blocked.</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/37.c</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>35.23544192314148</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/104.c</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.114892959594727</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/344.c</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>17.79612421989441</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/94.c</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5.911586999893188</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/12.c</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>185.7514567375183</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/121.c</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>19.07384395599365</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/79.c</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>32.29856395721436</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/771.c</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>54.35404515266418</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/7.c</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>4.353183031082153</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/841.c</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>30.55548810958862</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/905.c</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>18.12119388580322</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/153.c</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4.869653940200806</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/977.c</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>18.31638789176941</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/278.c</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>3.988767147064209</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/647.c</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7.096744298934937</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/852.c</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>16.12750792503357</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/709.c</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>20.63745784759521</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/236.c</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>15.15109086036682</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/191.c</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>3.826313972473145</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/45.c</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>26.1960780620575</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/24.c</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.349478244781494</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/2125.c</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>39.80320000648499</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/20.c</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.344275951385498</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/485.c</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>14.48947215080261</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/119.c</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5.236814022064209</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/136.c</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>3.83587384223938</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/2304.c</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>12.05224275588989</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1524.c</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6.333510875701904</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/509.c</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>3.305400133132935</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/979.c</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>13.70505285263062</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/217.c</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4.949628114700317</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/83.c</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>4.689986705780029</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Failure: Invalid operation: The `response.text` quick accessor requires the response to contain a valid `Part`, but none were returned. Please check the `candidate.safety_ratings` to determine if the response was blocked.</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/617.c</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>185.6965188980103</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/109.c</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5.430110216140747</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1283.c</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>9.947404146194458</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/2482.c</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>32.84604716300964</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1189.c</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>6.019327402114868</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/268.c</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>3.801904916763306</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/203.c</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5.50542688369751</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/11.c</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>6.568173170089722</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/4.c</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8.398812055587769</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/226.c</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.696648120880127</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/476.c</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.760491132736206</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1089.c</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.16948390007019</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/917.c</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.319674730300903</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/567.c</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11.80324506759644</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/442.c</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.517307043075562</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/669.c</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.702339172363281</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/876.c</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.981538057327271</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/684.c</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>35.55088210105896</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/190.c</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+      <c r="C190" t="n">
+        <v>13.9943733215332</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/953.c</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>8.303098201751709</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/938.c</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.989169120788574</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/173.c</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>10.63774585723877</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/118.c</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>8.252990961074829</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/112.c</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.823305130004883</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/21.c</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+      <c r="C196" t="n">
+        <v>19.54569602012634</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1704.c</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>6.711482048034668</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/82.c</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.091593980789185</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/2024.c</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>11.09848380088806</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/50.c</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>34.34391713142395</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/108.c</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>7.056095123291016</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/2501.c</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>33.23513317108154</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/367.c</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.653324842453003</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/223.c</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>26.05471086502075</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/169.c</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5.395755052566528</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/242.c</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>8.428544044494629</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/206.c</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>6.349030256271362</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/985.c</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+      <c r="C208" t="n">
+        <v>33.52095603942871</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/75.c</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>28.02831673622131</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1.c</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5.089002847671509</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/98.c</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>11.00378704071045</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/14.c</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.985250949859619</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/5.c</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+      <c r="C213" t="n">
+        <v>28.32200980186462</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/10.c</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>25.82175207138062</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/142.c</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4.002607107162476</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/35.c</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+      <c r="C216" t="n">
+        <v>16.35838294029236</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/2270.c</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>5.73200511932373</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/2130.c</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3.89224100112915</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/807.c</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>7.186816215515137</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/26.c</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4.521493673324585</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1833.c</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4.788928747177124</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/931.c</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>8.531657934188843</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/520.c</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+      <c r="C223" t="n">
+        <v>23.88395309448242</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/234.c</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>6.060621976852417</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/701.c</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4.18316388130188</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/62.c</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+      <c r="C226" t="n">
+        <v>16.48031210899353</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/215.c</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>5.125284910202026</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/66.c</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>2</v>
+      </c>
+      <c r="C228" t="n">
+        <v>19.94276094436646</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/274.c</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4.84519100189209</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/28.c</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>2</v>
+      </c>
+      <c r="C230" t="n">
+        <v>28.63446187973022</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1019.c</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4.268256902694702</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/230.c</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>4.576748132705688</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/8.c</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>9.689363956451416</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/2.c</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>12.16911005973816</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/124.c</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>2</v>
+      </c>
+      <c r="C235" t="n">
+        <v>22.14858531951904</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/17.c</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>8.770441055297852</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/434.c</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4.471856832504272</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1026.c</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>2</v>
+      </c>
+      <c r="C238" t="n">
+        <v>27.67186284065247</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/283.c</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+      <c r="C239" t="n">
+        <v>12.43551087379456</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/38.c</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4.825234889984131</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1009.c</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
+      <c r="C241" t="n">
+        <v>15.36983895301819</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/53.c</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>5.215893983840942</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/160.c</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>7.311637878417969</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/674.c</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>6.373324871063232</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1147.c</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>31.28872084617615</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/101.c</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+      <c r="C246" t="n">
+        <v>28.15637707710266</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/32.c</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>30.24820113182068</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/389.c</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>5.380757331848145</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1207.c</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4.817639112472534</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1653.c</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>4.93284797668457</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/189.c</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>7.36478590965271</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1657.c</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>8.925068140029907</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/2279.c</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>6.736133098602295</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/387.c</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4.039699792861938</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/6.c</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C255" t="n">
+        <v>37.15542078018188</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/287.c</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>5.369327068328857</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/2256.c</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>6.956599235534668</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/1695.c</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+      <c r="C258" t="n">
+        <v>4.500369787216187</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/13.c</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>8.311390161514282</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/965.c</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>4.24579906463623</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/201.c</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>4.511017799377441</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/19.c</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>4.854310035705566</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>C-master/leetcode/src/141.c</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>3.759170055389404</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>C-master/machine_learning/k_means_clustering.c</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0</v>
+      </c>
+      <c r="C264" t="n">
+        <v>45.89712595939636</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>C-master/machine_learning/kohonen_som_trace.c</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>58.27231121063232</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>C-master/machine_learning/kohonen_som_topology.c</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>74.12861490249634</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>C-master/machine_learning/adaline_learning.c</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>0</v>
+      </c>
+      <c r="C267" t="n">
+        <v>52.02575469017029</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>C-master/math/gcd.c</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>24.60320115089417</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>C-master/math/large_factorials.c</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+      <c r="C269" t="n">
+        <v>7.996676683425903</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>C-master/math/cartesian_to_polar.c</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+      <c r="C270" t="n">
+        <v>15.17641687393188</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>C-master/math/prime_factoriziation.c</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0</v>
+      </c>
+      <c r="C271" t="n">
+        <v>32.36857986450195</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>C-master/math/collatz.c</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+      <c r="C272" t="n">
+        <v>5.006459712982178</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>C-master/math/armstrong_number.c</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>0</v>
+      </c>
+      <c r="C273" t="n">
+        <v>8.375881910324097</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>C-master/math/fibonacci.c</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>8.224313259124756</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>C-master/math/factorial_large_number.c</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>13.15099287033081</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>C-master/math/factorial_trailing_zeroes.c</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0</v>
+      </c>
+      <c r="C276" t="n">
+        <v>6.978742837905884</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>C-master/math/lcm.c</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+      <c r="C277" t="n">
+        <v>16.16106915473938</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>C-master/math/strong_number.c</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+      <c r="C278" t="n">
+        <v>8.865072250366211</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>C-master/math/factorial.c</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>5.380749702453613</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>C-master/math/fibonacci_fast.c</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>7.998347043991089</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>C-master/math/palindrome.c</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+      <c r="C281" t="n">
+        <v>4.221853971481323</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>C-master/math/prime.c</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+      <c r="C282" t="n">
+        <v>23.72770404815674</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>C-master/math/euclidean_algorithm_extended.c</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0</v>
+      </c>
+      <c r="C283" t="n">
+        <v>13.53394198417664</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>C-master/math/lerp.c</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2</v>
+      </c>
+      <c r="C284" t="n">
+        <v>16.8498592376709</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>C-master/math/prime_sieve.c</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+      <c r="C285" t="n">
+        <v>11.67527794837952</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>C-master/math/fibonacci_dp.c</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>7.369662046432495</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>C-master/math/fibonacci_formula.c</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>26.7054750919342</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>C-master/math/catalan.c</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2</v>
+      </c>
+      <c r="C288" t="n">
+        <v>16.8146960735321</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>C-master/math/cantor_set.c</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>13.38906288146973</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>C-master/math/is_armstrong.c</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>4.227153062820435</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>C-master/misc/run_length_encoding.c</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+      <c r="C291" t="n">
+        <v>8.624643087387085</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>C-master/misc/poly_add.c</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2</v>
+      </c>
+      <c r="C292" t="n">
+        <v>67.43732309341431</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>C-master/misc/rselect.c</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+      <c r="C293" t="n">
+        <v>32.98874187469482</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>C-master/misc/demonetization.c</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>6.737687826156616</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>C-master/misc/shunting_yard.c</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2</v>
+      </c>
+      <c r="C295" t="n">
+        <v>99.95399975776672</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>C-master/misc/tower_of_hanoi.c</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0</v>
+      </c>
+      <c r="C296" t="n">
+        <v>5.840956211090088</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>C-master/misc/longest_subsequence.c</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+      <c r="C297" t="n">
+        <v>36.48065114021301</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>C-master/misc/pid.c</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2</v>
+      </c>
+      <c r="C298" t="n">
+        <v>24.33731508255005</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>C-master/misc/union_find.c</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>9.022032976150513</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>C-master/misc/sudoku_solver.c</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>55.2671639919281</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>C-master/misc/mirror.c</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>10.56774091720581</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>C-master/misc/quartile.c</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+      <c r="C302" t="n">
+        <v>6.386136054992676</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>C-master/misc/postfix_evaluation.c</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+      <c r="C303" t="n">
+        <v>10.58991408348083</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>C-master/misc/hamming_distance.c</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
+      <c r="C304" t="n">
+        <v>7.899491786956787</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>C-master/misc/mcnaughton_yamada_thompson.c</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+      <c r="C305" t="n">
+        <v>165.8294599056244</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>C-master/misc/lexicographic_permutations.c</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
+      <c r="C306" t="n">
+        <v>23.8380229473114</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/qr_decomposition.c</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+      <c r="C307" t="n">
+        <v>22.59517598152161</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/ode_midpoint_euler.c</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0</v>
+      </c>
+      <c r="C308" t="n">
+        <v>19.0098888874054</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/gauss_elimination.c</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
+      <c r="C309" t="n">
+        <v>27.74020886421204</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/realtime_stats.c</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>16.40709710121155</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/ode_forward_euler.c</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>20.52619695663452</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/mean.c</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0</v>
+      </c>
+      <c r="C312" t="n">
+        <v>6.70692777633667</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/bisection_method.c</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0</v>
+      </c>
+      <c r="C313" t="n">
+        <v>8.968975067138672</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/median.c</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0</v>
+      </c>
+      <c r="C314" t="n">
+        <v>6.58870005607605</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/newton_raphson_root.c</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>7.143831014633179</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/variance.c</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0</v>
+      </c>
+      <c r="C316" t="n">
+        <v>8.621532917022705</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/qr_eigen_values.c</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+      <c r="C317" t="n">
+        <v>53.51506304740906</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/gauss_seidel_method.c</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+      <c r="C318" t="n">
+        <v>8.373446941375732</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/simpsons_1_3rd_rule.c</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0</v>
+      </c>
+      <c r="C319" t="n">
+        <v>7.11755895614624</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/lu_decompose.c</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>0</v>
+      </c>
+      <c r="C320" t="n">
+        <v>30.06807589530945</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/durand_kerner_roots.c</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+      <c r="C321" t="n">
+        <v>33.84638714790344</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/ode_semi_implicit_euler.c</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>0</v>
+      </c>
+      <c r="C322" t="n">
+        <v>16.4435408115387</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/lagrange_theorem.c</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>0</v>
+      </c>
+      <c r="C323" t="n">
+        <v>7.206874847412109</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>C-master/numerical_methods/secant_method.c</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0</v>
+      </c>
+      <c r="C324" t="n">
+        <v>27.4430079460144</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>C-master/process_scheduling_algorithms/non_preemptive_priority_scheduling.c</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>24.22039604187012</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_401/sol1.c</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>0</v>
+      </c>
+      <c r="C326" t="n">
+        <v>32.14457702636719</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_5/sol3.c</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+      <c r="C327" t="n">
+        <v>26.05279684066772</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_5/sol2.c</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>0</v>
+      </c>
+      <c r="C328" t="n">
+        <v>6.037927865982056</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_5/sol1.c</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>0</v>
+      </c>
+      <c r="C329" t="n">
+        <v>5.234778881072998</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_2/so1.c</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
+      <c r="C330" t="n">
+        <v>3.911471843719482</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_3/sol2.c</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+      <c r="C331" t="n">
+        <v>3.904051065444946</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_3/sol1.c</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+      <c r="C332" t="n">
+        <v>28.56620597839355</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_4/sol.c</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0</v>
+      </c>
+      <c r="C333" t="n">
+        <v>6.344799041748047</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_19/sol1.c</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>2</v>
+      </c>
+      <c r="C334" t="n">
+        <v>37.7713360786438</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_26/sol1.c</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0</v>
+      </c>
+      <c r="C335" t="n">
+        <v>11.33041906356812</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_21/sol1.c</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0</v>
+      </c>
+      <c r="C336" t="n">
+        <v>8.990893125534058</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_10/sol2.c</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+      <c r="C337" t="n">
+        <v>6.144211053848267</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_10/sol1.c</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0</v>
+      </c>
+      <c r="C338" t="n">
+        <v>32.4959774017334</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_16/sol1.c</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0</v>
+      </c>
+      <c r="C339" t="n">
+        <v>7.389840841293335</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_20/sol1.c</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>2</v>
+      </c>
+      <c r="C340" t="n">
+        <v>35.86865615844727</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_8/sol2.c</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0</v>
+      </c>
+      <c r="C341" t="n">
+        <v>28.80002021789551</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_8/sol1.c</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0</v>
+      </c>
+      <c r="C342" t="n">
+        <v>9.78927206993103</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_1/sol4.c</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0</v>
+      </c>
+      <c r="C343" t="n">
+        <v>4.549402952194214</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_1/sol3.c</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0</v>
+      </c>
+      <c r="C344" t="n">
+        <v>6.065252780914307</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_1/sol2.c</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0</v>
+      </c>
+      <c r="C345" t="n">
+        <v>25.44024085998535</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_1/sol1.c</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>760.829790353775</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Failure: 504 Deadline Exceeded</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_6/sol.c</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0</v>
+      </c>
+      <c r="C347" t="n">
+        <v>3.719810009002686</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_7/sol.c</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>2</v>
+      </c>
+      <c r="C348" t="n">
+        <v>14.55101418495178</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_7/sol2.c</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+      <c r="C349" t="n">
+        <v>9.944985866546631</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_9/sol2.c</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>2</v>
+      </c>
+      <c r="C350" t="n">
+        <v>14.71800899505615</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_9/sol1.c</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0</v>
+      </c>
+      <c r="C351" t="n">
+        <v>5.970169067382812</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_22/sol1.c</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0</v>
+      </c>
+      <c r="C352" t="n">
+        <v>32.67933177947998</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_25/sol1.c</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>2</v>
+      </c>
+      <c r="C353" t="n">
+        <v>42.65638494491577</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_13/sol1.c</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>0</v>
+      </c>
+      <c r="C354" t="n">
+        <v>17.5552761554718</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_14/sol1.c</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+      <c r="C355" t="n">
+        <v>13.18272018432617</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_15/sol1.c</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>0</v>
+      </c>
+      <c r="C356" t="n">
+        <v>5.665762901306152</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_12/sol1.c</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>0</v>
+      </c>
+      <c r="C357" t="n">
+        <v>26.14336895942688</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_23/sol2.c</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0</v>
+      </c>
+      <c r="C358" t="n">
+        <v>18.23176026344299</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>C-master/project_euler/problem_23/sol1.c</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0</v>
+      </c>
+      <c r="C359" t="n">
+        <v>11.03981900215149</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>C-master/searching/other_binary_search.c</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0</v>
+      </c>
+      <c r="C360" t="n">
+        <v>6.518551111221313</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>C-master/searching/ternary_search.c</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>0</v>
+      </c>
+      <c r="C361" t="n">
+        <v>210.1469650268555</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>C-master/searching/fibonacci_search.c</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>0</v>
+      </c>
+      <c r="C362" t="n">
+        <v>7.869533061981201</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>C-master/searching/interpolation_search.c</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>0</v>
+      </c>
+      <c r="C363" t="n">
+        <v>8.415663957595825</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>C-master/searching/jump_search.c</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0</v>
+      </c>
+      <c r="C364" t="n">
+        <v>28.13996911048889</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>C-master/searching/binary_search.c</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>0</v>
+      </c>
+      <c r="C365" t="n">
+        <v>20.24468517303467</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>C-master/searching/sentinel_linear_search.c</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+      <c r="C366" t="n">
+        <v>10.43818974494934</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>C-master/searching/linear_search.c</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>0</v>
+      </c>
+      <c r="C367" t="n">
+        <v>7.351044178009033</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>C-master/searching/exponential_search.c</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>2</v>
+      </c>
+      <c r="C368" t="n">
+        <v>35.21723699569702</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>C-master/searching/floyd_cycle_detection_algorithm.c</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0</v>
+      </c>
+      <c r="C369" t="n">
+        <v>7.136210918426514</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>C-master/searching/modified_binary_search.c</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>0</v>
+      </c>
+      <c r="C370" t="n">
+        <v>16.63179087638855</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>C-master/searching/pattern_search/rabin_karp_search.c</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0</v>
+      </c>
+      <c r="C371" t="n">
+        <v>12.25317788124084</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>C-master/searching/pattern_search/boyer_moore_search.c</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0</v>
+      </c>
+      <c r="C372" t="n">
+        <v>10.5080680847168</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>C-master/searching/pattern_search/naive_search.c</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0</v>
+      </c>
+      <c r="C373" t="n">
+        <v>6.979471206665039</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>C-master/sorting/partition_sort.c</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+      <c r="C374" t="n">
+        <v>12.33532881736755</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>C-master/sorting/cocktail_sort.c</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+      <c r="C375" t="n">
+        <v>27.96366596221924</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>C-master/sorting/bubble_sort.c</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0</v>
+      </c>
+      <c r="C376" t="n">
+        <v>11.40753078460693</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>C-master/sorting/merge_sort.c</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0</v>
+      </c>
+      <c r="C377" t="n">
+        <v>32.16605114936829</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>C-master/sorting/bucket_sort.c</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0</v>
+      </c>
+      <c r="C378" t="n">
+        <v>23.93600106239319</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>C-master/sorting/shell_sort.c</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0</v>
+      </c>
+      <c r="C379" t="n">
+        <v>11.51648688316345</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>C-master/sorting/bead_sort.c</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+      <c r="C380" t="n">
+        <v>9.706658840179443</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>C-master/sorting/heap_sort.c</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0</v>
+      </c>
+      <c r="C381" t="n">
+        <v>9.087300777435303</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>C-master/sorting/bubble_sort_2.c</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+      <c r="C382" t="n">
+        <v>6.402755737304688</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>C-master/sorting/bogo_sort.c</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+      <c r="C383" t="n">
+        <v>17.18358826637268</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>C-master/sorting/patience_sort.c</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+      <c r="C384" t="n">
+        <v>32.55273079872131</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>C-master/sorting/pancake_sort.c</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+      <c r="C385" t="n">
+        <v>22.05424785614014</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>C-master/sorting/binary_insertion_sort.c</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>2</v>
+      </c>
+      <c r="C386" t="n">
+        <v>45.43605017662048</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>C-master/sorting/multikey_quick_sort.c</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0</v>
+      </c>
+      <c r="C387" t="n">
+        <v>57.38717222213745</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>C-master/sorting/stooge_sort.c</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0</v>
+      </c>
+      <c r="C388" t="n">
+        <v>6.771328210830688</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>C-master/sorting/shell_sort2.c</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>0</v>
+      </c>
+      <c r="C389" t="n">
+        <v>14.04054927825928</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>C-master/sorting/heap_sort_2.c</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>2</v>
+      </c>
+      <c r="C390" t="n">
+        <v>80.5082049369812</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>C-master/sorting/selection_sort_recursive.c</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>2</v>
+      </c>
+      <c r="C391" t="n">
+        <v>36.42448735237122</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>C-master/sorting/quick_sort.c</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+      <c r="C392" t="n">
+        <v>29.95955204963684</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>C-master/sorting/merge_sort_nr.c</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+      <c r="C393" t="n">
+        <v>13.310879945755</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>C-master/sorting/insertion_sort_recursive.c</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0</v>
+      </c>
+      <c r="C394" t="n">
+        <v>28.10498189926147</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>C-master/sorting/gnome_sort.c</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>0</v>
+      </c>
+      <c r="C395" t="n">
+        <v>10.0771861076355</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>C-master/sorting/odd_even_sort.c</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>2</v>
+      </c>
+      <c r="C396" t="n">
+        <v>34.06086182594299</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>C-master/sorting/radix_sort.c</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>0</v>
+      </c>
+      <c r="C397" t="n">
+        <v>10.56394219398499</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>C-master/sorting/counting_sort.c</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>0</v>
+      </c>
+      <c r="C398" t="n">
+        <v>6.480203151702881</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>C-master/sorting/comb_sort.c</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>0</v>
+      </c>
+      <c r="C399" t="n">
+        <v>12.12985181808472</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>C-master/sorting/radix_sort_2.c</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>0</v>
+      </c>
+      <c r="C400" t="n">
+        <v>16.04856014251709</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>C-master/sorting/cycle_sort.c</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>0</v>
+      </c>
+      <c r="C401" t="n">
+        <v>30.05062675476074</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>C-master/sorting/random_quick_sort.c</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>0</v>
+      </c>
+      <c r="C402" t="n">
+        <v>30.95289492607117</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>C-master/sorting/selection_sort.c</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>0</v>
+      </c>
+      <c r="C403" t="n">
+        <v>18.79123520851135</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>C-master/sorting/insertion_sort.c</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>0</v>
+      </c>
+      <c r="C404" t="n">
+        <v>8.643135070800781</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>Task completed successfully</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>C-master/sorting/bubble_sort_recursion.c</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>2</v>
+      </c>
+      <c r="C405" t="n">
+        <v>27.74312806129456</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>C-master/sorting/shaker_sort.c</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>0</v>
+      </c>
+      <c r="C406" t="n">
+        <v>27.78821492195129</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>Task failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>C-master/sorting/pigeonhole_sort.c</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>2</v>
+      </c>
+      <c r="C407" t="n">
+        <v>32.48933720588684</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>Task failed</t>
         </is>
       </c>
     </row>

--- a/CorrectnessProof/script_log.xlsx
+++ b/CorrectnessProof/script_log.xlsx
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>14.75542902946472</v>
+        <v>13.73892903327942</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
@@ -440,7 +440,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14.78836703300476</v>
+        <v>15.32306694984436</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -463,7 +463,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>7.55829930305481</v>
+        <v>9.869969844818115</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -496,20 +496,22 @@
           <t>C-master/client_server/tcp_half_duplex_server.c</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>9.536353826522827</v>
+        <v>45.98964405059814</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>logbook error:No function containing 'proof_harness' in its name found.</t>
         </is>
       </c>
     </row>
@@ -523,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>8.763803243637085</v>
+        <v>14.17738270759583</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +534,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -546,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>14.29333305358887</v>
+        <v>14.35744571685791</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -555,7 +557,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -566,19 +568,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.95416283607483</v>
+        <v>60.22438907623291</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -592,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>14.60973906517029</v>
+        <v>11.45525503158569</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -601,7 +603,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -615,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>13.42084193229675</v>
+        <v>10.51814913749695</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -624,7 +626,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -635,19 +637,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>194.6906681060791</v>
+        <v>15.20943999290466</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -661,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.663095951080322</v>
+        <v>12.6884651184082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -670,7 +672,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -684,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>10.25412607192993</v>
+        <v>9.363830089569092</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -693,7 +695,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.42330694198608</v>
+        <v>9.506155967712402</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -716,7 +718,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -730,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.100168943405151</v>
+        <v>7.448315858840942</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -739,7 +741,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>13.52163696289062</v>
+        <v>13.58412504196167</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -762,7 +764,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -773,10 +775,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>18.72377514839172</v>
+        <v>29.70062780380249</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -785,7 +787,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -799,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>10.83102107048035</v>
+        <v>13.31110000610352</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -808,7 +810,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -822,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>5.021515607833862</v>
+        <v>4.091344833374023</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -831,7 +833,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -845,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>8.822340250015259</v>
+        <v>9.97114896774292</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -854,7 +856,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>21.07982683181763</v>
+        <v>17.90432095527649</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -877,7 +879,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -891,16 +893,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>17.77124905586243</v>
+        <v>40.11798501014709</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -914,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>17.5755877494812</v>
+        <v>9.815849781036377</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -923,7 +925,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -937,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>9.3961181640625</v>
+        <v>16.41745495796204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -946,7 +948,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -957,19 +959,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>5.586796045303345</v>
+        <v>26.44035601615906</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -983,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>12.72050786018372</v>
+        <v>10.72351622581482</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -992,7 +994,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1003,19 +1005,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>12.34346604347229</v>
+        <v>20.77298617362976</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>13.62736487388611</v>
+        <v>16.68673205375671</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1038,7 +1040,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>6.366291046142578</v>
+        <v>4.22068190574646</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1061,7 +1063,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>7.533214807510376</v>
+        <v>5.045721769332886</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1084,7 +1086,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1098,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>7.780529022216797</v>
+        <v>6.838282108306885</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1107,7 +1109,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>5.872606754302979</v>
+        <v>8.588020801544189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1130,7 +1132,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1141,19 +1143,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>25.44811296463013</v>
+        <v>6.99586296081543</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>26.63769602775574</v>
+        <v>26.70684099197388</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1176,7 +1178,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>6.021715879440308</v>
+        <v>8.060149908065796</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1199,7 +1201,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1210,19 +1212,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>993.176687002182</v>
+        <v>40.00659799575806</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -1233,19 +1235,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>28.97751712799072</v>
+        <v>67.0103771686554</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -1255,22 +1257,20 @@
           <t>C-master/data_structures/array/carray_tests.c</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B37" t="n">
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>922.0170369148254</v>
+        <v>25.9716169834137</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -1281,19 +1281,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>118.7399108409882</v>
+        <v>38.02942395210266</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -1304,19 +1304,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>98.32821393013</v>
+        <v>13.81355214118958</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -1327,19 +1327,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>32.99306416511536</v>
+        <v>15.3724799156189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>21.10815000534058</v>
+        <v>12.44015407562256</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>15.23083186149597</v>
+        <v>13.74504113197327</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>12.33661580085754</v>
+        <v>14.09181094169617</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>15.49179196357727</v>
+        <v>22.03101420402527</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>7.438419342041016</v>
+        <v>8.567622900009155</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>13.58616089820862</v>
+        <v>14.09413599967957</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>95.71502995491028</v>
+        <v>19.11371397972107</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>12.50861787796021</v>
+        <v>7.149794101715088</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>22.79697608947754</v>
+        <v>16.32920813560486</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>syntax error in original c code</t>
         </is>
       </c>
     </row>
@@ -1557,10 +1557,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>16.00437998771667</v>
+        <v>8.396092176437378</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -1580,10 +1580,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>101.747407913208</v>
+        <v>15.18770480155945</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>16.8936128616333</v>
+        <v>14.19677519798279</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>20.6848247051239</v>
+        <v>18.85783982276917</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>46.77251625061035</v>
+        <v>40.08193588256836</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>22.26703119277954</v>
+        <v>26.01414704322815</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>4.028023958206177</v>
+        <v>3.916892051696777</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>69.73289799690247</v>
+        <v>80.32291293144226</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>60.43205094337463</v>
+        <v>69.54044222831726</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -1767,16 +1767,16 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>84.46966409683228</v>
+        <v>38.25445795059204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>7.988964080810547</v>
+        <v>6.899272203445435</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>952.9658811092377</v>
+        <v>24.72516870498657</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -1832,22 +1832,20 @@
           <t>C-master/data_structures/heap/min_heap.c</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B62" t="n">
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>3260.199676990509</v>
+        <v>24.50797891616821</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -1858,10 +1856,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>670.791218996048</v>
+        <v>11.87184476852417</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1870,7 +1868,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -1881,19 +1879,19 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>2384.227317810059</v>
+        <v>11.92531108856201</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -1904,19 +1902,19 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>218.4825117588043</v>
+        <v>9.353351831436157</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -1927,19 +1925,19 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>3043.402227878571</v>
+        <v>13.40760087966919</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -1950,10 +1948,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>3280.189196109772</v>
+        <v>7.883736848831177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1962,7 +1960,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -1972,22 +1970,20 @@
           <t>C-master/data_structures/graphs/bfs_queue.c</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B68" t="n">
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>776.23011302948</v>
+        <v>12.89824271202087</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -1997,22 +1993,20 @@
           <t>C-master/data_structures/graphs/dfs_recursive.c</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B69" t="n">
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>2541.253179788589</v>
+        <v>20.11212420463562</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2022,22 +2016,20 @@
           <t>C-master/data_structures/graphs/dijkstra.c</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B70" t="n">
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1117.25004196167</v>
+        <v>22.24879813194275</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>8.06426215171814</v>
+        <v>6.020071983337402</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2060,7 +2052,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2070,22 +2062,20 @@
           <t>C-master/data_structures/graphs/bellman_ford.c</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B72" t="n">
+        <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>1495.540827989578</v>
+        <v>76.47168302536011</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -2095,22 +2085,20 @@
           <t>C-master/data_structures/graphs/queue.c</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B73" t="n">
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>2158.524750947952</v>
+        <v>9.446498870849609</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2108,20 @@
           <t>C-master/data_structures/graphs/euler.c</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B74" t="n">
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>3661.660884857178</v>
+        <v>9.583116054534912</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2145,22 +2131,20 @@
           <t>C-master/data_structures/graphs/kruskal.c</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B75" t="n">
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>4805.093788146973</v>
+        <v>37.33041191101074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -2171,19 +2155,19 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>500.8045930862427</v>
+        <v>15.84818387031555</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -2193,22 +2177,20 @@
           <t>C-master/data_structures/graphs/hamiltonian.c</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B77" t="n">
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>2010.110622882843</v>
+        <v>9.221686840057373</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2218,22 +2200,20 @@
           <t>C-master/data_structures/graphs/dfs.c</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B78" t="n">
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>3241.163254976273</v>
+        <v>18.91998291015625</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2243,22 +2223,20 @@
           <t>C-master/data_structures/graphs/graph.c</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B79" t="n">
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>3283.150023937225</v>
+        <v>15.17364525794983</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2268,22 +2246,20 @@
           <t>C-master/data_structures/graphs/topological_sort.c</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B80" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>795.2613320350647</v>
+        <v>18.11707592010498</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -2293,22 +2269,20 @@
           <t>C-master/data_structures/graphs/strongly_connected_components.c</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B81" t="n">
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>2525.220796823502</v>
+        <v>31.41914486885071</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -2318,22 +2292,20 @@
           <t>C-master/data_structures/graphs/bfs.c</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B82" t="n">
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>1134.243597984314</v>
+        <v>64.05766797065735</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -2344,10 +2316,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>3659.997348070145</v>
+        <v>6.780612945556641</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2356,7 +2328,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2367,19 +2339,19 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>21.7286479473114</v>
+        <v>37.74819707870483</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -2393,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>3640.194052934647</v>
+        <v>9.868108034133911</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2412,22 +2384,20 @@
           <t>C-master/data_structures/stack/dynamic_stack.c</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B86" t="n">
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>3657.81259894371</v>
+        <v>79.53113412857056</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -2438,10 +2408,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>2435.187290906906</v>
+        <v>8.565471172332764</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2450,7 +2420,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2461,10 +2431,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>4884.108278036118</v>
+        <v>7.234309911727905</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2473,7 +2443,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2484,10 +2454,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>3660.136851787567</v>
+        <v>4.537859916687012</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2496,7 +2466,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2507,10 +2477,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>17.29353904724121</v>
+        <v>5.2589430809021</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2519,7 +2489,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2529,22 +2499,20 @@
           <t>C-master/developer_tools/malloc_dbg.c</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B91" t="n">
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>3642.451016902924</v>
+        <v>19.79440307617188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>2348.190378904343</v>
+        <v>15.78218603134155</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2567,7 +2535,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2581,16 +2549,16 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>45.77519917488098</v>
+        <v>24.84918713569641</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>9.16893482208252</v>
+        <v>6.172564029693604</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2613,7 +2581,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2624,19 +2592,19 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>9.623759746551514</v>
+        <v>2.193006038665771</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>6.468784093856812</v>
+        <v>6.579847097396851</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2659,7 +2627,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2670,10 +2638,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>11.21714305877686</v>
+        <v>6.687696218490601</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2682,7 +2650,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>7.827849864959717</v>
+        <v>6.84713888168335</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2705,7 +2673,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2716,19 +2684,19 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>185.2525682449341</v>
+        <v>63.88136768341064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>gemini stops generating after 1000 lines of code</t>
         </is>
       </c>
     </row>
@@ -2742,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>46.45021796226501</v>
+        <v>45.57964587211609</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2751,7 +2719,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2762,19 +2730,19 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>60.94315218925476</v>
+        <v>23.35164999961853</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -2785,10 +2753,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>33.41951012611389</v>
+        <v>24.39399099349976</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2797,7 +2765,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2808,10 +2776,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>24.42578196525574</v>
+        <v>14.9753110408783</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2820,7 +2788,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>38.67739796638489</v>
+        <v>24.72534799575806</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2843,7 +2811,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>10.89512324333191</v>
+        <v>12.89005303382874</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2866,7 +2834,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2880,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>22.1494472026825</v>
+        <v>22.66384792327881</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>6.842016935348511</v>
+        <v>22.31831383705139</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2912,7 +2880,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2926,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>18.54208874702454</v>
+        <v>7.624511003494263</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2935,7 +2903,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>5.453845977783203</v>
+        <v>8.150541067123413</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2958,7 +2926,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2972,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>5.535575866699219</v>
+        <v>10.18596792221069</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2981,7 +2949,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>6.846024990081787</v>
+        <v>7.704704999923706</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3004,7 +2972,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3018,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>59.7939829826355</v>
+        <v>42.73483920097351</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3027,7 +2995,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>8.921881198883057</v>
+        <v>7.063390016555786</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3050,7 +3018,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3061,19 +3029,19 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>5.738443851470947</v>
+        <v>19.05059814453125</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>6.394762992858887</v>
+        <v>5.858855962753296</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3096,7 +3064,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>20.75045204162598</v>
+        <v>19.62505006790161</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3119,7 +3087,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -3130,19 +3098,19 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C117" t="n">
-        <v>5.480159997940063</v>
+        <v>17.69408583641052</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>6.877370119094849</v>
+        <v>7.800769090652466</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3165,7 +3133,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3176,19 +3144,19 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>17.15074276924133</v>
+        <v>4.890209674835205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3199,19 +3167,19 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>10.96065402030945</v>
+        <v>5.28960394859314</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>4.35250186920166</v>
+        <v>5.878158092498779</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3234,7 +3202,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3245,19 +3213,19 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>24.2335798740387</v>
+        <v>6.806742906570435</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>7.893892765045166</v>
+        <v>9.898948907852173</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3280,7 +3248,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3291,19 +3259,19 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>14.45984196662903</v>
+        <v>5.166468143463135</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>5.463310718536377</v>
+        <v>4.928329229354858</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3326,7 +3294,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>2.588340282440186</v>
+        <v>2.845166683197021</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3349,7 +3317,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>5.800375938415527</v>
+        <v>5.425772905349731</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3372,7 +3340,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>4.39291524887085</v>
+        <v>13.04415607452393</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3395,7 +3363,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3409,16 +3377,16 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>17.74315190315247</v>
+        <v>23.81043410301208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -3432,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>5.154932975769043</v>
+        <v>8.217369794845581</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3441,7 +3409,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>6.249193906784058</v>
+        <v>6.984621047973633</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3464,7 +3432,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="C132" t="n">
-        <v>29.84843969345093</v>
+        <v>27.77302980422974</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3487,7 +3455,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -3498,19 +3466,19 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>23.82543897628784</v>
+        <v>12.70874118804932</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>6.754040002822876</v>
+        <v>7.916244029998779</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3533,7 +3501,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>4.754255056381226</v>
+        <v>6.382603168487549</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3556,7 +3524,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>4.602440118789673</v>
+        <v>3.815165996551514</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3579,7 +3547,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>3.909449100494385</v>
+        <v>4.218961000442505</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3602,7 +3570,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3613,19 +3581,19 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>5.338238000869751</v>
+        <v>18.0749351978302</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -3641,16 +3609,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>4.611749172210693</v>
+        <v>5.277661800384521</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Failure: Invalid operation: The `response.text` quick accessor requires the response to contain a valid `Part`, but none were returned. Please check the `candidate.safety_ratings` to determine if the response was blocked.</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>logbook error:Invalid operation: The `response.text` quick accessor requires the response to contain a valid `Part`, but none were returned. Please check the `candidate.safety_ratings` to determine if the response was blocked.</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>35.23544192314148</v>
+        <v>32.75939726829529</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3673,7 +3641,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -3687,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>4.114892959594727</v>
+        <v>4.124167919158936</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3696,7 +3664,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3707,19 +3675,19 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>17.79612421989441</v>
+        <v>3.882503747940063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>5.911586999893188</v>
+        <v>4.528663873672485</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3742,7 +3710,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="C144" t="n">
-        <v>185.7514567375183</v>
+        <v>61.95020699501038</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3765,7 +3733,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -3776,19 +3744,19 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>19.07384395599365</v>
+        <v>4.416688919067383</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>32.29856395721436</v>
+        <v>31.16899418830872</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3811,7 +3779,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3793,7 @@
         <v>2</v>
       </c>
       <c r="C147" t="n">
-        <v>54.35404515266418</v>
+        <v>55.74778389930725</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3834,7 +3802,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>4.353183031082153</v>
+        <v>4.091476917266846</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3857,7 +3825,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>30.55548810958862</v>
+        <v>29.52561497688293</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3880,7 +3848,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="C150" t="n">
-        <v>18.12119388580322</v>
+        <v>16.56676292419434</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3903,7 +3871,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>4.869653940200806</v>
+        <v>5.278754711151123</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3926,7 +3894,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -3937,19 +3905,19 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>18.31638789176941</v>
+        <v>8.757367134094238</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -3960,19 +3928,19 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C153" t="n">
-        <v>3.988767147064209</v>
+        <v>12.40786385536194</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -3986,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>7.096744298934937</v>
+        <v>25.47182106971741</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -4009,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>16.12750792503357</v>
+        <v>18.06879210472107</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4018,7 +3986,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4000,7 @@
         <v>2</v>
       </c>
       <c r="C156" t="n">
-        <v>20.63745784759521</v>
+        <v>18.6242139339447</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4041,7 +4009,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>15.15109086036682</v>
+        <v>8.986951112747192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4064,7 +4032,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -4078,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>3.826313972473145</v>
+        <v>4.832482814788818</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4087,7 +4055,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>26.1960780620575</v>
+        <v>25.79024815559387</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4110,7 +4078,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -4124,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>6.349478244781494</v>
+        <v>6.059863805770874</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4133,7 +4101,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4115,7 @@
         <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>39.80320000648499</v>
+        <v>25.8212718963623</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4156,7 +4124,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>5.344275951385498</v>
+        <v>5.399055957794189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4179,7 +4147,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4193,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>14.48947215080261</v>
+        <v>8.795198202133179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4202,7 +4170,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>5.236814022064209</v>
+        <v>4.319832801818848</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4225,7 +4193,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>3.83587384223938</v>
+        <v>2.904354095458984</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4248,7 +4216,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>12.05224275588989</v>
+        <v>14.84606313705444</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4271,7 +4239,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>6.333510875701904</v>
+        <v>6.605339050292969</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4294,7 +4262,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4308,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>3.305400133132935</v>
+        <v>3.050907135009766</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4317,7 +4285,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4331,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>13.70505285263062</v>
+        <v>11.23650979995728</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>syntax error in original c code</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>4.949628114700317</v>
+        <v>4.143001794815063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4363,7 +4331,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4379,16 +4347,16 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>4.689986705780029</v>
+        <v>3.863512992858887</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Failure: Invalid operation: The `response.text` quick accessor requires the response to contain a valid `Part`, but none were returned. Please check the `candidate.safety_ratings` to determine if the response was blocked.</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>logbook error:Invalid operation: The `response.text` quick accessor requires the response to contain a valid `Part`, but none were returned. Please check the `candidate.safety_ratings` to determine if the response was blocked.</t>
         </is>
       </c>
     </row>
@@ -4399,19 +4367,19 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>185.6965188980103</v>
+        <v>7.180374145507812</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>5.430110216140747</v>
+        <v>7.405715942382812</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4434,7 +4402,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4448,16 +4416,16 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>9.947404146194458</v>
+        <v>26.7848699092865</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -4471,16 +4439,16 @@
         <v>2</v>
       </c>
       <c r="C175" t="n">
-        <v>32.84604716300964</v>
+        <v>37.59307909011841</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -4494,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>6.019327402114868</v>
+        <v>5.18864893913269</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4503,7 +4471,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>3.801904916763306</v>
+        <v>4.703521966934204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4526,7 +4494,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4540,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>5.50542688369751</v>
+        <v>7.749281167984009</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4549,7 +4517,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4563,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>6.568173170089722</v>
+        <v>6.287867069244385</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4572,7 +4540,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>8.398812055587769</v>
+        <v>8.748134851455688</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4595,7 +4563,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>6.696648120880127</v>
+        <v>4.373376131057739</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4618,7 +4586,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4632,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>4.760491132736206</v>
+        <v>3.365391969680786</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4641,7 +4609,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>5.16948390007019</v>
+        <v>4.446280956268311</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4664,7 +4632,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>6.319674730300903</v>
+        <v>6.912220001220703</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4687,7 +4655,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>11.80324506759644</v>
+        <v>8.73547887802124</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4710,7 +4678,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>4.517307043075562</v>
+        <v>4.73816704750061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -4733,7 +4701,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>4.702339172363281</v>
+        <v>4.852488994598389</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4756,7 +4724,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4770,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>4.981538057327271</v>
+        <v>3.556216716766357</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4779,7 +4747,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4790,10 +4758,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>35.55088210105896</v>
+        <v>21.42417573928833</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4802,7 +4770,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4813,19 +4781,19 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>13.9943733215332</v>
+        <v>7.619771242141724</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>syntax error in original c code</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>8.303098201751709</v>
+        <v>12.09118008613586</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4848,7 +4816,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>3.989169120788574</v>
+        <v>5.554059982299805</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4871,7 +4839,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4882,19 +4850,19 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C193" t="n">
-        <v>10.63774585723877</v>
+        <v>39.19026899337769</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -4908,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>8.252990961074829</v>
+        <v>7.063117742538452</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4917,7 +4885,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>4.823305130004883</v>
+        <v>5.666469097137451</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4940,7 +4908,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -4951,19 +4919,19 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>19.54569602012634</v>
+        <v>10.96785998344421</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>6.711482048034668</v>
+        <v>4.878216028213501</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4986,7 +4954,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5000,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>4.091593980789185</v>
+        <v>6.882275819778442</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5009,7 +4977,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5023,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>11.09848380088806</v>
+        <v>15.22251391410828</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5032,7 +5000,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5043,19 +5011,19 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>34.34391713142395</v>
+        <v>5.278929948806763</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>7.056095123291016</v>
+        <v>7.171095132827759</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5078,7 +5046,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5092,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>33.23513317108154</v>
+        <v>28.7615110874176</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5101,7 +5069,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>2.653324842453003</v>
+        <v>2.420871734619141</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5124,7 +5092,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>26.05471086502075</v>
+        <v>27.22573828697205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5147,7 +5115,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>5.395755052566528</v>
+        <v>5.951830863952637</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5170,7 +5138,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5184,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>8.428544044494629</v>
+        <v>5.175030946731567</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5193,7 +5161,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>6.349030256271362</v>
+        <v>4.874628067016602</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5216,7 +5184,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5230,16 +5198,16 @@
         <v>2</v>
       </c>
       <c r="C208" t="n">
-        <v>33.52095603942871</v>
+        <v>18.5604829788208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>28.02831673622131</v>
+        <v>26.16479110717773</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5262,7 +5230,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -5273,19 +5241,19 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C210" t="n">
-        <v>5.089002847671509</v>
+        <v>15.31891179084778</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -5296,19 +5264,19 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C211" t="n">
-        <v>11.00378704071045</v>
+        <v>17.64483308792114</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -5322,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>4.985250949859619</v>
+        <v>7.142500162124634</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5331,7 +5299,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5345,7 +5313,7 @@
         <v>2</v>
       </c>
       <c r="C213" t="n">
-        <v>28.32200980186462</v>
+        <v>31.12118697166443</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5354,7 +5322,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -5368,16 +5336,16 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>25.82175207138062</v>
+        <v>9.117843866348267</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>4.002607107162476</v>
+        <v>6.129502058029175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5400,7 +5368,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5411,19 +5379,19 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>16.35838294029236</v>
+        <v>11.28031587600708</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>5.73200511932373</v>
+        <v>5.322704076766968</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5446,7 +5414,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>3.89224100112915</v>
+        <v>5.442306995391846</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5469,7 +5437,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5483,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>7.186816215515137</v>
+        <v>7.057042837142944</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5492,7 +5460,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5506,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>4.521493673324585</v>
+        <v>7.909056901931763</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5515,7 +5483,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>4.788928747177124</v>
+        <v>6.112451791763306</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5538,7 +5506,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5552,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>8.531657934188843</v>
+        <v>7.270529985427856</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5561,7 +5529,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5572,19 +5540,19 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>23.88395309448242</v>
+        <v>6.603945970535278</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -5598,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>6.060621976852417</v>
+        <v>8.35079288482666</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -5607,7 +5575,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>4.18316388130188</v>
+        <v>4.006595134735107</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -5630,7 +5598,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5644,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="C226" t="n">
-        <v>16.48031210899353</v>
+        <v>18.99002289772034</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5653,7 +5621,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -5667,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>5.125284910202026</v>
+        <v>5.67120885848999</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -5676,7 +5644,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5687,10 +5655,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>19.94276094436646</v>
+        <v>5.825534105300903</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -5699,7 +5667,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5713,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>4.84519100189209</v>
+        <v>6.169932126998901</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -5722,7 +5690,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5733,19 +5701,19 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>28.63446187973022</v>
+        <v>9.284212112426758</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -5759,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>4.268256902694702</v>
+        <v>5.245016813278198</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -5768,7 +5736,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5782,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>4.576748132705688</v>
+        <v>4.552015066146851</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -5791,7 +5759,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>9.689363956451416</v>
+        <v>13.26643896102905</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -5814,7 +5782,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>12.16911005973816</v>
+        <v>8.086838960647583</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -5837,7 +5805,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5819,7 @@
         <v>2</v>
       </c>
       <c r="C235" t="n">
-        <v>22.14858531951904</v>
+        <v>16.08811616897583</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -5860,7 +5828,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>8.770441055297852</v>
+        <v>15.90775084495544</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -5883,7 +5851,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5897,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>4.471856832504272</v>
+        <v>3.419970989227295</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -5906,7 +5874,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5917,19 +5885,19 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>27.67186284065247</v>
+        <v>8.32191801071167</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>syntax error in original c code</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5911,7 @@
         <v>2</v>
       </c>
       <c r="C239" t="n">
-        <v>12.43551087379456</v>
+        <v>17.52340698242188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -5952,7 +5920,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -5966,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>4.825234889984131</v>
+        <v>6.563018083572388</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -5975,7 +5943,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -5989,7 +5957,7 @@
         <v>2</v>
       </c>
       <c r="C241" t="n">
-        <v>15.36983895301819</v>
+        <v>17.68525004386902</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -5998,7 +5966,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -6012,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>5.215893983840942</v>
+        <v>5.809396982192993</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -6021,7 +5989,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6035,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>7.311637878417969</v>
+        <v>7.505384206771851</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -6044,7 +6012,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>6.373324871063232</v>
+        <v>5.240111112594604</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -6067,7 +6035,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>31.28872084617615</v>
+        <v>31.56291007995605</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -6090,7 +6058,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -6101,19 +6069,19 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>28.15637707710266</v>
+        <v>6.55612587928772</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6127,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>30.24820113182068</v>
+        <v>34.12764286994934</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -6136,7 +6104,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -6150,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>5.380757331848145</v>
+        <v>5.308154106140137</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -6159,7 +6127,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6173,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>4.817639112472534</v>
+        <v>4.798043727874756</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -6182,7 +6150,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>4.93284797668457</v>
+        <v>5.543020009994507</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -6205,7 +6173,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6219,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>7.36478590965271</v>
+        <v>10.74147510528564</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -6228,7 +6196,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6242,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>8.925068140029907</v>
+        <v>6.811563014984131</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -6251,7 +6219,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6265,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>6.736133098602295</v>
+        <v>6.959466934204102</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -6274,7 +6242,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6288,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>4.039699792861938</v>
+        <v>9.407384157180786</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -6297,7 +6265,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6311,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>37.15542078018188</v>
+        <v>24.87675070762634</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -6320,7 +6288,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>syntax error in original c code</t>
         </is>
       </c>
     </row>
@@ -6334,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>5.369327068328857</v>
+        <v>4.01059889793396</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -6343,7 +6311,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>6.956599235534668</v>
+        <v>5.416104078292847</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -6366,7 +6334,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6380,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>4.500369787216187</v>
+        <v>5.035835742950439</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -6389,7 +6357,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6403,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>8.311390161514282</v>
+        <v>6.665724039077759</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -6412,7 +6380,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>4.24579906463623</v>
+        <v>5.568583011627197</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -6435,7 +6403,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6449,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>4.511017799377441</v>
+        <v>8.200493097305298</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -6458,7 +6426,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6469,19 +6437,19 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C262" t="n">
-        <v>4.854310035705566</v>
+        <v>24.45532274246216</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -6495,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>3.759170055389404</v>
+        <v>3.939815998077393</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -6504,7 +6472,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6518,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>45.89712595939636</v>
+        <v>45.81857419013977</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -6527,7 +6495,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -6541,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>58.27231121063232</v>
+        <v>60.80469727516174</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -6550,7 +6518,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -6564,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>74.12861490249634</v>
+        <v>75.43279886245728</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -6573,7 +6541,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -6587,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>52.02575469017029</v>
+        <v>39.68084406852722</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -6596,7 +6564,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>'data'</t>
         </is>
       </c>
     </row>
@@ -6610,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>24.60320115089417</v>
+        <v>23.92697811126709</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -6619,7 +6587,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>7.996676683425903</v>
+        <v>7.371967077255249</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -6642,7 +6610,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6653,10 +6621,10 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>15.17641687393188</v>
+        <v>29.34980988502502</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -6665,7 +6633,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -6679,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>32.36857986450195</v>
+        <v>34.82241010665894</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -6688,7 +6656,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>5.006459712982178</v>
+        <v>8.448471069335938</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -6711,7 +6679,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6725,16 +6693,16 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>8.375881910324097</v>
+        <v>28.00435495376587</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -6748,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>8.224313259124756</v>
+        <v>9.5832200050354</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -6757,7 +6725,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6771,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>13.15099287033081</v>
+        <v>10.2807719707489</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -6780,7 +6748,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>6.978742837905884</v>
+        <v>5.61796498298645</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -6803,7 +6771,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6817,16 +6785,16 @@
         <v>2</v>
       </c>
       <c r="C277" t="n">
-        <v>16.16106915473938</v>
+        <v>14.7021918296814</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -6837,19 +6805,19 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>8.865072250366211</v>
+        <v>5.902030944824219</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6863,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>5.380749702453613</v>
+        <v>5.615135908126831</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -6872,7 +6840,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6886,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>7.998347043991089</v>
+        <v>7.90083384513855</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -6895,7 +6863,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>4.221853971481323</v>
+        <v>5.188350200653076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -6918,7 +6886,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -6932,16 +6900,16 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>23.72770404815674</v>
+        <v>25.90789198875427</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -6955,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>13.53394198417664</v>
+        <v>14.55892992019653</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -6964,7 +6932,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>'data'</t>
         </is>
       </c>
     </row>
@@ -6975,19 +6943,19 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>16.8498592376709</v>
+        <v>26.26075196266174</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -6998,19 +6966,19 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>11.67527794837952</v>
+        <v>14.11945700645447</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7024,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>7.369662046432495</v>
+        <v>9.668853998184204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -7033,7 +7001,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7047,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>26.7054750919342</v>
+        <v>25.17504215240479</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -7056,7 +7024,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -7070,16 +7038,16 @@
         <v>2</v>
       </c>
       <c r="C288" t="n">
-        <v>16.8146960735321</v>
+        <v>9.391171216964722</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -7090,19 +7058,19 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>13.38906288146973</v>
+        <v>11.92977595329285</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>syntax error in original c code</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>4.227153062820435</v>
+        <v>3.485518217086792</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -7125,7 +7093,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>8.624643087387085</v>
+        <v>11.02069711685181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -7148,7 +7116,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7159,10 +7127,10 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>67.43732309341431</v>
+        <v>19.36648726463318</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -7171,7 +7139,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>syntax error in original c code</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>32.98874187469482</v>
+        <v>33.75887894630432</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -7194,7 +7162,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -7208,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>6.737687826156616</v>
+        <v>10.15381383895874</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -7217,7 +7185,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7228,10 +7196,10 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>99.95399975776672</v>
+        <v>23.53607797622681</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -7240,7 +7208,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>syntax error in original c code</t>
         </is>
       </c>
     </row>
@@ -7254,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>5.840956211090088</v>
+        <v>4.676414012908936</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -7263,7 +7231,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>36.48065114021301</v>
+        <v>27.1075918674469</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -7286,7 +7254,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -7300,7 +7268,7 @@
         <v>2</v>
       </c>
       <c r="C298" t="n">
-        <v>24.33731508255005</v>
+        <v>29.48531103134155</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -7309,7 +7277,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>9.022032976150513</v>
+        <v>7.228996753692627</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -7332,7 +7300,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7346,16 +7314,16 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>55.2671639919281</v>
+        <v>28.23429894447327</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7369,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>10.56774091720581</v>
+        <v>5.035181045532227</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -7378,7 +7346,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7392,7 +7360,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>6.386136054992676</v>
+        <v>6.876449823379517</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -7401,7 +7369,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7415,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>10.58991408348083</v>
+        <v>12.94763708114624</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -7424,7 +7392,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7438,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>7.899491786956787</v>
+        <v>8.036508321762085</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -7447,7 +7415,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7458,19 +7426,19 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>165.8294599056244</v>
+        <v>70.58516311645508</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -7484,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>23.8380229473114</v>
+        <v>24.53570008277893</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -7493,7 +7461,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7504,10 +7472,10 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>22.59517598152161</v>
+        <v>16.13630080223083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -7516,7 +7484,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -7530,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>19.0098888874054</v>
+        <v>18.56582808494568</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -7539,7 +7507,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7553,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>27.74020886421204</v>
+        <v>29.77337694168091</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -7562,7 +7530,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7576,16 +7544,16 @@
         <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>16.40709710121155</v>
+        <v>15.28591012954712</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>20.52619695663452</v>
+        <v>19.03645515441895</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -7608,7 +7576,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7622,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>6.70692777633667</v>
+        <v>6.706173896789551</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -7631,7 +7599,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7645,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>8.968975067138672</v>
+        <v>7.780978918075562</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -7654,7 +7622,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7668,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>6.58870005607605</v>
+        <v>6.495951890945435</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -7677,7 +7645,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>7.143831014633179</v>
+        <v>7.700153112411499</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -7700,7 +7668,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Expecting ',' delimiter: line 36 column 4 (char 928)</t>
         </is>
       </c>
     </row>
@@ -7714,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>8.621532917022705</v>
+        <v>12.45810198783875</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -7723,7 +7691,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7734,10 +7702,10 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>53.51506304740906</v>
+        <v>35.11114525794983</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -7746,7 +7714,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>file not found</t>
         </is>
       </c>
     </row>
@@ -7760,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>8.373446941375732</v>
+        <v>8.435274839401245</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -7769,7 +7737,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7783,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>7.11755895614624</v>
+        <v>7.805623054504395</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -7792,7 +7760,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>30.06807589530945</v>
+        <v>25.14436507225037</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -7815,7 +7783,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7829,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>33.84638714790344</v>
+        <v>19.36681699752808</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -7838,7 +7806,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -7852,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>16.4435408115387</v>
+        <v>15.46104598045349</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -7861,7 +7829,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>7.206874847412109</v>
+        <v>4.990331172943115</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -7884,7 +7852,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7898,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>27.4430079460144</v>
+        <v>26.41153502464294</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -7907,7 +7875,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>24.22039604187012</v>
+        <v>24.08783197402954</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -7930,7 +7898,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7944,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>32.14457702636719</v>
+        <v>33.23316502571106</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -7953,7 +7921,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -7967,16 +7935,16 @@
         <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>26.05279684066772</v>
+        <v>6.797491073608398</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -7987,19 +7955,19 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C328" t="n">
-        <v>6.037927865982056</v>
+        <v>15.73944711685181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -8013,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>5.234778881072998</v>
+        <v>4.426805973052979</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -8022,7 +7990,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8036,16 +8004,16 @@
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>3.911471843719482</v>
+        <v>62.82544207572937</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>gemini stops generating after 1000 lines of code</t>
         </is>
       </c>
     </row>
@@ -8059,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>3.904051065444946</v>
+        <v>4.354757308959961</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -8068,7 +8036,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8082,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>28.56620597839355</v>
+        <v>26.54395008087158</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -8091,7 +8059,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -8105,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>6.344799041748047</v>
+        <v>8.233302116394043</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -8114,7 +8082,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8125,19 +8093,19 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>37.7713360786438</v>
+        <v>11.65316796302795</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>11.33041906356812</v>
+        <v>9.890614986419678</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -8160,7 +8128,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8174,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>8.990893125534058</v>
+        <v>13.0498628616333</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -8183,7 +8151,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8197,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>6.144211053848267</v>
+        <v>4.922733068466187</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -8206,7 +8174,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8220,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>32.4959774017334</v>
+        <v>27.1956000328064</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -8229,7 +8197,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -8243,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>7.389840841293335</v>
+        <v>7.999582052230835</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -8252,7 +8220,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8263,19 +8231,19 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>35.86865615844727</v>
+        <v>11.69976687431335</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>syntax error in original c code</t>
         </is>
       </c>
     </row>
@@ -8289,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>28.80002021789551</v>
+        <v>28.58726978302002</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -8298,7 +8266,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -8312,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>9.78927206993103</v>
+        <v>8.969916105270386</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -8321,7 +8289,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8335,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>4.549402952194214</v>
+        <v>5.261414051055908</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -8344,7 +8312,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>6.065252780914307</v>
+        <v>10.09496402740479</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -8367,7 +8335,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8381,16 +8349,16 @@
         <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>25.44024085998535</v>
+        <v>5.209277153015137</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8400,22 +8368,20 @@
           <t>C-master/project_euler/problem_1/sol1.c</t>
         </is>
       </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="B346" t="n">
+        <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>760.829790353775</v>
+        <v>4.967617034912109</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Failure: 504 Deadline Exceeded</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>3.719810009002686</v>
+        <v>3.482984066009521</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -8438,7 +8404,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8449,19 +8415,19 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>14.55101418495178</v>
+        <v>6.771664142608643</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8475,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>9.944985866546631</v>
+        <v>10.23962593078613</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -8484,7 +8450,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -8498,7 +8464,7 @@
         <v>2</v>
       </c>
       <c r="C350" t="n">
-        <v>14.71800899505615</v>
+        <v>14.83849382400513</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -8507,7 +8473,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>5.970169067382812</v>
+        <v>4.423089027404785</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -8530,7 +8496,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8544,7 +8510,7 @@
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>32.67933177947998</v>
+        <v>37.23345899581909</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -8553,7 +8519,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -8564,19 +8530,19 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>42.65638494491577</v>
+        <v>13.63418579101562</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8590,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>17.5552761554718</v>
+        <v>18.43891215324402</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -8599,7 +8565,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8610,19 +8576,19 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C355" t="n">
-        <v>13.18272018432617</v>
+        <v>22.10120415687561</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>5.665762901306152</v>
+        <v>6.460845232009888</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -8645,7 +8611,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8659,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>26.14336895942688</v>
+        <v>26.32423281669617</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -8668,7 +8634,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -8679,19 +8645,19 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C358" t="n">
-        <v>18.23176026344299</v>
+        <v>47.38088989257812</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>11.03981900215149</v>
+        <v>9.586219787597656</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -8714,7 +8680,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8728,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>6.518551111221313</v>
+        <v>5.909936904907227</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -8737,7 +8703,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>'data'</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>210.1469650268555</v>
+        <v>9.264435052871704</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -8760,7 +8726,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8774,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>7.869533061981201</v>
+        <v>7.3559889793396</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -8783,7 +8749,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8797,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>8.415663957595825</v>
+        <v>7.697234153747559</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -8806,7 +8772,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8820,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>28.13996911048889</v>
+        <v>28.55408596992493</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -8829,7 +8795,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>20.24468517303467</v>
+        <v>11.46967506408691</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -8852,7 +8818,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8863,19 +8829,19 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>10.43818974494934</v>
+        <v>6.998834371566772</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8889,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>7.351044178009033</v>
+        <v>5.969805955886841</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -8898,7 +8864,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8909,19 +8875,19 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>35.21723699569702</v>
+        <v>15.77618908882141</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -8932,19 +8898,19 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C369" t="n">
-        <v>7.136210918426514</v>
+        <v>43.27034282684326</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -8958,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>16.63179087638855</v>
+        <v>20.78185892105103</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -8967,7 +8933,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -8981,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>12.25317788124084</v>
+        <v>10.11377716064453</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -8990,7 +8956,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9004,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>10.5080680847168</v>
+        <v>9.339810132980347</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -9013,7 +8979,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9027,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>6.979471206665039</v>
+        <v>9.771619081497192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -9036,7 +9002,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>12.33532881736755</v>
+        <v>17.33092403411865</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -9059,7 +9025,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9073,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>27.96366596221924</v>
+        <v>24.55036807060242</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -9082,7 +9048,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>11.40753078460693</v>
+        <v>10.19923400878906</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -9105,7 +9071,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9119,16 +9085,16 @@
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>32.16605114936829</v>
+        <v>12.15982413291931</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9142,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>23.93600106239319</v>
+        <v>18.82819890975952</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -9151,7 +9117,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9165,16 +9131,16 @@
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>11.51648688316345</v>
+        <v>30.58238482475281</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>9.706658840179443</v>
+        <v>15.77946805953979</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -9197,7 +9163,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9211,16 +9177,16 @@
         <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>9.087300777435303</v>
+        <v>19.04743504524231</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>'data'</t>
         </is>
       </c>
     </row>
@@ -9234,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>6.402755737304688</v>
+        <v>7.254714250564575</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -9243,7 +9209,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9257,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>17.18358826637268</v>
+        <v>20.01241493225098</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -9266,7 +9232,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9280,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>32.55273079872131</v>
+        <v>32.21730518341064</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -9289,7 +9255,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -9303,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>22.05424785614014</v>
+        <v>11.33341574668884</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -9312,7 +9278,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9323,10 +9289,10 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>45.43605017662048</v>
+        <v>11.17723965644836</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -9335,7 +9301,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9349,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>57.38717222213745</v>
+        <v>63.86466979980469</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -9358,7 +9324,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -9372,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>6.771328210830688</v>
+        <v>6.564790964126587</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -9381,7 +9347,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9392,19 +9358,19 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C389" t="n">
-        <v>14.04054927825928</v>
+        <v>36.6171178817749</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -9415,19 +9381,19 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>80.5082049369812</v>
+        <v>18.73741793632507</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9441,7 +9407,7 @@
         <v>2</v>
       </c>
       <c r="C391" t="n">
-        <v>36.42448735237122</v>
+        <v>52.06378698348999</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -9450,7 +9416,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -9464,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>29.95955204963684</v>
+        <v>30.65204191207886</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -9473,7 +9439,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -9487,7 +9453,7 @@
         <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>13.310879945755</v>
+        <v>9.281371831893921</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -9496,7 +9462,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>expected string or bytes-like object, got 'NoneType'</t>
         </is>
       </c>
     </row>
@@ -9510,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>28.10498189926147</v>
+        <v>27.72281384468079</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -9519,7 +9485,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -9533,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>10.0771861076355</v>
+        <v>7.491681098937988</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -9542,7 +9508,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9553,19 +9519,19 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>34.06086182594299</v>
+        <v>10.51774787902832</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9579,16 +9545,16 @@
         <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>10.56394219398499</v>
+        <v>10.51096296310425</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>success</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9602,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>6.480203151702881</v>
+        <v>6.535590887069702</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -9611,7 +9577,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9625,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>12.12985181808472</v>
+        <v>12.11254405975342</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -9634,7 +9600,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9648,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>16.04856014251709</v>
+        <v>14.41900110244751</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -9657,7 +9623,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9671,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>30.05062675476074</v>
+        <v>31.01577687263489</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -9680,7 +9646,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -9691,19 +9657,19 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C402" t="n">
-        <v>30.95289492607117</v>
+        <v>189.9834213256836</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>syntax</t>
         </is>
       </c>
     </row>
@@ -9717,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>18.79123520851135</v>
+        <v>23.33780288696289</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -9726,7 +9692,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9740,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>8.643135070800781</v>
+        <v>9.600152015686035</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -9749,7 +9715,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Task completed successfully</t>
+          <t>Passed 1st try</t>
         </is>
       </c>
     </row>
@@ -9763,7 +9729,7 @@
         <v>2</v>
       </c>
       <c r="C405" t="n">
-        <v>27.74312806129456</v>
+        <v>29.45275616645813</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -9772,7 +9738,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>27.78821492195129</v>
+        <v>33.10550808906555</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -9795,7 +9761,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>cbmc took too long to run</t>
         </is>
       </c>
     </row>
@@ -9809,7 +9775,7 @@
         <v>2</v>
       </c>
       <c r="C407" t="n">
-        <v>32.48933720588684</v>
+        <v>36.09124302864075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -9818,7 +9784,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Task failed</t>
+          <t>assertion</t>
         </is>
       </c>
     </row>
